--- a/src/test/resources/TestData/vTigerTestData.xlsx
+++ b/src/test/resources/TestData/vTigerTestData.xlsx
@@ -8,25 +8,26 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Lead" sheetId="2" r:id="rId2"/>
-    <sheet name="Activities" sheetId="3" r:id="rId3"/>
-    <sheet name="Contacts" sheetId="4" r:id="rId4"/>
-    <sheet name="Potentials" sheetId="5" r:id="rId5"/>
-    <sheet name="Products" sheetId="6" r:id="rId6"/>
-    <sheet name="Notes" sheetId="7" r:id="rId7"/>
-    <sheet name="Emails" sheetId="8" r:id="rId8"/>
-    <sheet name="HelpDesk" sheetId="9" r:id="rId9"/>
-    <sheet name="Quotes" sheetId="10" r:id="rId10"/>
-    <sheet name="Orders" sheetId="11" r:id="rId11"/>
-    <sheet name="Invoice" sheetId="12" r:id="rId12"/>
-    <sheet name="Reports" sheetId="13" r:id="rId13"/>
+    <sheet name="Accounts" sheetId="14" r:id="rId2"/>
+    <sheet name="Lead" sheetId="2" r:id="rId3"/>
+    <sheet name="Activities" sheetId="3" r:id="rId4"/>
+    <sheet name="Contacts" sheetId="4" r:id="rId5"/>
+    <sheet name="Potentials" sheetId="5" r:id="rId6"/>
+    <sheet name="Products" sheetId="6" r:id="rId7"/>
+    <sheet name="Notes" sheetId="7" r:id="rId8"/>
+    <sheet name="Emails" sheetId="8" r:id="rId9"/>
+    <sheet name="HelpDesk" sheetId="9" r:id="rId10"/>
+    <sheet name="Quotes" sheetId="10" r:id="rId11"/>
+    <sheet name="Orders" sheetId="11" r:id="rId12"/>
+    <sheet name="Invoice" sheetId="12" r:id="rId13"/>
+    <sheet name="Reports" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Username</t>
   </si>
@@ -164,6 +165,51 @@
   </si>
   <si>
     <t>verifyEditActivity_TC05</t>
+  </si>
+  <si>
+    <t>CreateNewContact_TC01</t>
+  </si>
+  <si>
+    <t>ContactSearchAndDelete_TC02</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Account name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Member Of</t>
+  </si>
+  <si>
+    <t>verifyCreateNewAccountWithMandatoryFields_TC01</t>
+  </si>
+  <si>
+    <t>verifyCreateNewAccountWithAllFields_TC02</t>
+  </si>
+  <si>
+    <t>verifyAccountSearch_TC03</t>
   </si>
 </sst>
 </file>
@@ -220,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,13 +287,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,6 +647,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -607,7 +670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -619,7 +682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -633,7 +696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -649,9 +712,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -661,7 +796,7 @@
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -689,7 +824,7 @@
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -721,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
@@ -779,9 +914,9 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -791,12 +926,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +939,7 @@
     <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
@@ -820,7 +955,7 @@
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -834,66 +969,66 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,19 +1036,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -927,7 +1127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -941,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -955,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -967,18 +1167,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>